--- a/unet++/savefile/Unet++_camvid1.xlsx
+++ b/unet++/savefile/Unet++_camvid1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01128735216973254</v>
+        <v>0.01814600676096024</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1832.477162122726</v>
+        <v>7189.088928222656</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00876691571289632</v>
+        <v>0.01419877219539127</v>
       </c>
       <c r="D3" t="n">
-        <v>2.224909232246976e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3670.24413061142</v>
+        <v>16010.55254077911</v>
       </c>
     </row>
     <row r="4">
@@ -508,56 +508,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007910150471509711</v>
+        <v>0.01339462881093028</v>
       </c>
       <c r="D4" t="n">
-        <v>6.674727696740927e-10</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5508.584352016449</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.007361970178981648</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.112454616123488e-09</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>7346.257007360458</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.006902535357744855</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.674727696740927e-10</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>9184.572050094604</v>
+        <v>23399.95058560371</v>
       </c>
     </row>
   </sheetData>
